--- a/Toolchain/testsuite/CUDA/Summary.xlsx
+++ b/Toolchain/testsuite/CUDA/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GPURepair\Toolchain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GPURepair\Toolchain\testsuite\CUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB8219-4FC7-460C-85EC-E1DD52411987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369F325-8D10-468F-B5E9-F9B529EFE820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6595D98C-436C-4E92-BF09-D8F0676655E1}"/>
   </bookViews>
@@ -1029,7 +1029,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B0E26-D7CE-4955-ADF7-A97EB2D0E970}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1057,7 +1056,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1068,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1080,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3071,11 +3070,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C177" xr:uid="{C1A4C989-2843-4C74-A88C-4C53EE30FD6E}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C177" xr:uid="{C1A4C989-2843-4C74-A88C-4C53EE30FD6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
